--- a/testdata/api.xlsx
+++ b/testdata/api.xlsx
@@ -9,15 +9,14 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="variables" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>case_id</t>
   </si>
@@ -424,7 +423,7 @@
     <t>http://119.23.241.154:8080/futureloan/mvc/api/loan/add</t>
   </si>
   <si>
-    <t>{"memberId":"${userid}","title":"zrproject1","amount":"50000","loanRate":"10","loanTerm":"4","loanDateType":"4","repaymemtWay":"5","biddingDays":"10"}</t>
+    <t>{"memberId":"${userid}","title":"zrproject1","amount":"50000","loanRate":"12.0","loanTerm":"4","loanDateType":"4","repaymemtWay":"5","biddingDays":"10"}</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
@@ -568,10 +567,10 @@
     <t>http://119.23.241.154:8080/futureloan/mvc/api/loan/getLoanList</t>
   </si>
   <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>"msg": "获取用户列表成功"</t>
+    <t>${loanid}=\"id\"\:\"(\d*)\"\,\"memberId\"\:\"${userid}</t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
   <si>
     <t>投资竞标</t>
@@ -586,6 +585,9 @@
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/bidLoan</t>
   </si>
   <si>
+    <t>{"memberId":"${userid}","password":"0123456789","loanId":"${loanid}","amount":"100"}</t>
+  </si>
+  <si>
     <t>{"memberId":"","password":"","loanId":"","amount":""}</t>
   </si>
   <si>
@@ -607,36 +609,6 @@
     <t>http://119.23.241.154:8080/futureloan/mvc/api/loan/audit</t>
   </si>
   <si>
-    <t>项目名为空</t>
-  </si>
-  <si>
-    <t>借款金额为空</t>
-  </si>
-  <si>
-    <t>{"memberId":"${userid}","title":"zr first project","amount":"","loanRate":"10","loanTerm":"4","loanDateType":"4","repaymemtWay":"5","biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>年利率为空</t>
-  </si>
-  <si>
-    <t>借款期限为空</t>
-  </si>
-  <si>
-    <t>借款期限类型为空</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>还款方式为空</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>竞标天数为空</t>
-  </si>
-  <si>
     <t>变量名</t>
   </si>
   <si>
@@ -646,25 +618,13 @@
     <t>${init_phone}</t>
   </si>
   <si>
-    <t>15600000333</t>
+    <t>15600000375</t>
   </si>
   <si>
     <t>${phone}</t>
   </si>
   <si>
     <t>${noReg_phone}</t>
-  </si>
-  <si>
-    <t>${userid}=data.id</t>
-  </si>
-  <si>
-    <t>新增项目成功</t>
-  </si>
-  <si>
-    <t>add_loan_success</t>
-  </si>
-  <si>
-    <t>{"memberId":"${userid}","title":"zr first project","amount":"50000","loanRate":"10","loanTerm":"4","loanDateType":"4","repaymemtWay":"5","biddingDays":"10"}</t>
   </si>
 </sst>
 </file>
@@ -1077,25 +1037,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="21.125" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="15" width="3.75"/>
     <col customWidth="1" max="2" min="2" style="15" width="11.875"/>
-    <col customWidth="1" max="3" min="3" style="4" width="17.625"/>
+    <col customWidth="1" max="3" min="3" style="4" width="28.875"/>
     <col customWidth="1" max="4" min="4" style="4" width="29.625"/>
     <col customWidth="1" max="5" min="5" style="4" width="4.375"/>
     <col customWidth="1" max="6" min="6" style="4" width="14.125"/>
-    <col customWidth="1" max="7" min="7" style="4" width="68.25"/>
-    <col customWidth="1" max="8" min="8" style="4" width="37.125"/>
+    <col customWidth="1" max="7" min="7" style="4" width="48.5"/>
+    <col customWidth="1" max="8" min="8" style="4" width="54.125"/>
     <col customWidth="1" max="9" min="9" style="4" width="6.25"/>
-    <col customWidth="1" max="13" min="10" style="4" width="21.125"/>
-    <col customWidth="1" max="16384" min="14" style="4" width="21.125"/>
+    <col customWidth="1" max="23" min="10" style="4" width="21.125"/>
+    <col customWidth="1" max="16384" min="24" style="4" width="21.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2209,13 +2169,42 @@
       <c r="E41" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>182</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>129</v>
       </c>
       <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2246,6 +2235,7 @@
     <hyperlink ref="F40" r:id="rId17"/>
     <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api" ref="D41" r:id="rId18"/>
     <hyperlink ref="F41" r:id="rId19"/>
+    <hyperlink ref="F42" r:id="rId20"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2258,10 +2248,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -2273,8 +2263,8 @@
     <col customWidth="1" max="5" min="5" style="4" width="6.75"/>
     <col customWidth="1" max="6" min="6" style="4" width="48"/>
     <col customWidth="1" max="7" min="7" style="4" width="64.5"/>
-    <col customWidth="1" max="45" min="8" style="4" width="9"/>
-    <col customWidth="1" max="16384" min="46" style="4" width="9"/>
+    <col customWidth="1" max="55" min="8" style="4" width="9"/>
+    <col customWidth="1" max="16384" min="56" style="4" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2303,57 +2293,45 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="42.75" r="2" s="4" spans="1:9">
+    <row r="2" spans="1:9">
       <c r="A2" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="15" t="n"/>
+        <v>130</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="G2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>185</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B3" s="10" t="n"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G3" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="10" t="n"/>
+        <v>141</v>
+      </c>
+      <c r="B4" s="15" t="n"/>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>188</v>
@@ -2361,11 +2339,11 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="15" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B5" s="15" t="n"/>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>188</v>
@@ -2373,230 +2351,60 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B6" s="15" t="n"/>
       <c r="C6" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="15" t="n"/>
-      <c r="C7" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="10" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="15" t="n"/>
-      <c r="B18" s="15" t="n"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="15" t="n"/>
-      <c r="B19" s="15" t="n"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="15" t="n"/>
-      <c r="B20" s="15" t="n"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="15" t="n"/>
-      <c r="B21" s="15" t="n"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="11" t="n"/>
-      <c r="C22" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="11" t="n"/>
-      <c r="C23" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="11" t="n"/>
-      <c r="C24" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" s="11" t="n"/>
-      <c r="C25" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="11" t="n"/>
-      <c r="C26" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="15" t="s">
+    </row>
+    <row customHeight="1" ht="42.75" r="11" s="4" spans="1:9">
+      <c r="A11" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B27" s="11" t="n"/>
-      <c r="C27" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B28" s="11" t="n"/>
-      <c r="C28" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B29" s="11" t="n"/>
-      <c r="C29" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D29" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" t="s">
-        <v>178</v>
+      <c r="B11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F7" r:id="rId3"/>
-    <hyperlink ref="F17" r:id="rId4"/>
-    <hyperlink ref="F29" r:id="rId5"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F9" r:id="rId3"/>
+    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api" ref="D11" r:id="rId4"/>
+    <hyperlink ref="F11" r:id="rId5"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2623,29 +2431,29 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B3" s="5" t="n"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5" t="n"/>
     </row>
@@ -2653,865 +2461,4 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A1:XFD30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="3"/>
-    <col customWidth="1" max="2" min="2" style="15" width="4.125"/>
-    <col customWidth="1" max="3" min="3" style="4" width="16.375"/>
-    <col customWidth="1" max="4" min="4" style="4" width="7.125"/>
-    <col customWidth="1" max="5" min="5" style="4" width="4.75"/>
-    <col customWidth="1" max="6" min="6" style="4" width="8.75"/>
-    <col customWidth="1" max="7" min="7" style="4" width="49.75"/>
-    <col customWidth="1" max="8" min="8" style="4" width="28.375"/>
-    <col customWidth="1" max="9" min="9" style="4" width="11.375"/>
-    <col customWidth="1" max="10" min="10" style="4" width="20.875"/>
-    <col customWidth="1" max="46" min="11" style="4" width="9"/>
-    <col customWidth="1" max="16384" min="47" style="4" width="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.5" r="14" s="4" spans="1:10">
-      <c r="A14" s="15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="15" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="15" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.5" r="18" s="4" spans="1:10">
-      <c r="A18" s="15" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="15" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="15" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="12" t="n"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="15" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="15" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.5" r="24" s="4" spans="1:10">
-      <c r="A24" s="15" t="n">
-        <v>26</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.5" r="25" s="4" spans="1:10">
-      <c r="A25" s="15" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.5" r="26" s="4" spans="1:10">
-      <c r="A26" s="15" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="15" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.5" r="28" s="4" spans="1:10">
-      <c r="A28" s="15" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.5" r="30" s="4" spans="1:10">
-      <c r="A30" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" t="s">
-        <v>214</v>
-      </c>
-      <c r="E30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" t="s">
-        <v>215</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B24:B28"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F9" r:id="rId2"/>
-    <hyperlink ref="F10" r:id="rId3"/>
-    <hyperlink ref="F12" r:id="rId4"/>
-    <hyperlink ref="F13" r:id="rId5"/>
-    <hyperlink ref="F15" r:id="rId6"/>
-    <hyperlink ref="F16" r:id="rId7"/>
-    <hyperlink ref="F17" r:id="rId8"/>
-    <hyperlink ref="F18" r:id="rId9"/>
-    <hyperlink ref="F23" r:id="rId10"/>
-    <hyperlink ref="F25" r:id="rId11"/>
-    <hyperlink ref="F28" r:id="rId12"/>
-    <hyperlink ref="F29" r:id="rId13"/>
-    <hyperlink ref="F30" r:id="rId14"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>